--- a/適当のやってます感を出すコスト表進捗管理表.xlsx
+++ b/適当のやってます感を出すコスト表進捗管理表.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\吉山 悠翔\Documents\GitHub\TeamYUF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9110567E-D979-4700-9B3B-0EDAA49EC42A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6784381B-46AF-42E8-B306-0CB72AF31501}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{0BA52F6F-8DE5-4979-9396-8741D5B6D96D}"/>
+    <workbookView xWindow="0" yWindow="-12420" windowWidth="21600" windowHeight="11295" xr2:uid="{0BA52F6F-8DE5-4979-9396-8741D5B6D96D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,8 +27,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -36,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="34">
   <si>
     <t>広告ゲー</t>
     <rPh sb="0" eb="2">
@@ -230,6 +228,27 @@
     <t>ある程度できました。</t>
     <rPh sb="2" eb="4">
       <t>テイド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゲームプレイ中</t>
+    <rPh sb="6" eb="7">
+      <t>チュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2.3個</t>
+    <rPh sb="3" eb="4">
+      <t>コ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>条件がわかるやつ</t>
+    <rPh sb="0" eb="2">
+      <t>ジョウケン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -255,7 +274,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -271,12 +290,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC00000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -301,7 +314,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -312,9 +325,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -654,7 +664,7 @@
   <dimension ref="B3:I21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -674,14 +684,14 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="2:9" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B5" s="1" t="s">
+    <row r="5" spans="2:9" s="3" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B5" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="3" t="s">
         <v>21</v>
       </c>
     </row>
@@ -707,14 +717,14 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="2:9" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B8" s="1" t="s">
+    <row r="8" spans="2:9" s="3" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" s="3" t="s">
         <v>23</v>
       </c>
     </row>
@@ -738,14 +748,14 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="2:9" s="4" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B10" s="4" t="s">
+    <row r="10" spans="2:9" s="3" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B10" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D10" s="3" t="s">
         <v>22</v>
       </c>
     </row>
@@ -760,14 +770,14 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="2:9" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B12" s="1" t="s">
+    <row r="12" spans="2:9" s="3" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B12" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D12" s="3" t="s">
         <v>29</v>
       </c>
     </row>
@@ -780,6 +790,17 @@
       </c>
       <c r="D13" s="1" t="s">
         <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="C14" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F14" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.4">
@@ -820,6 +841,14 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="039abfb5-1edc-46dd-b6ee-7f92783bfc48" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101008A027EB2FAD7E1499BC2910A1E60BC68" ma:contentTypeVersion="15" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="2d9a1a523ffbb49d174d87f3fc2b0552">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="039abfb5-1edc-46dd-b6ee-7f92783bfc48" xmlns:ns4="db6a9e92-7dff-44c4-88fb-dfdb35aacb58" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c8855742c2b3842f2752b1d9b06ff042" ns3:_="" ns4:_="">
     <xsd:import namespace="039abfb5-1edc-46dd-b6ee-7f92783bfc48"/>
@@ -1052,14 +1081,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="039abfb5-1edc-46dd-b6ee-7f92783bfc48" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -1070,6 +1091,23 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9416F684-1582-4F5D-9043-64ADE41FDD62}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="039abfb5-1edc-46dd-b6ee-7f92783bfc48"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="db6a9e92-7dff-44c4-88fb-dfdb35aacb58"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{285EE8EB-72C2-4613-90EA-E12B0178E76C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1088,23 +1126,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9416F684-1582-4F5D-9043-64ADE41FDD62}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="039abfb5-1edc-46dd-b6ee-7f92783bfc48"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="db6a9e92-7dff-44c4-88fb-dfdb35aacb58"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A19C87D1-9792-4A5B-BC74-5941B049E330}">
   <ds:schemaRefs>
